--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.750007333333333</v>
+        <v>4.888145666666667</v>
       </c>
       <c r="H2">
-        <v>14.250022</v>
+        <v>14.664437</v>
       </c>
       <c r="I2">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="J2">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750007333333333</v>
+        <v>4.888145666666667</v>
       </c>
       <c r="N2">
-        <v>14.250022</v>
+        <v>14.664437</v>
       </c>
       <c r="O2">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="P2">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="Q2">
-        <v>22.56256966672045</v>
+        <v>23.89396805855211</v>
       </c>
       <c r="R2">
-        <v>203.063127000484</v>
+        <v>215.045712526969</v>
       </c>
       <c r="S2">
-        <v>0.5464627405627464</v>
+        <v>0.4068270429634663</v>
       </c>
       <c r="T2">
-        <v>0.5464627405627464</v>
+        <v>0.4068270429634663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.750007333333333</v>
+        <v>4.888145666666667</v>
       </c>
       <c r="H3">
-        <v>14.250022</v>
+        <v>14.664437</v>
       </c>
       <c r="I3">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="J3">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.546437</v>
       </c>
       <c r="O3">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="P3">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="Q3">
-        <v>0.8651932524015555</v>
+        <v>0.8903545512187777</v>
       </c>
       <c r="R3">
-        <v>7.786739271613999</v>
+        <v>8.013190960968998</v>
       </c>
       <c r="S3">
-        <v>0.02095487716193599</v>
+        <v>0.01515948746452575</v>
       </c>
       <c r="T3">
-        <v>0.02095487716193599</v>
+        <v>0.01515948746452575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.750007333333333</v>
+        <v>4.888145666666667</v>
       </c>
       <c r="H4">
-        <v>14.250022</v>
+        <v>14.664437</v>
       </c>
       <c r="I4">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="J4">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.449457666666667</v>
+        <v>2.546261</v>
       </c>
       <c r="N4">
-        <v>4.348373</v>
+        <v>7.638783</v>
       </c>
       <c r="O4">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="P4">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="Q4">
-        <v>6.884934546022889</v>
+        <v>12.44649467335233</v>
       </c>
       <c r="R4">
-        <v>61.96441091420599</v>
+        <v>112.018452060171</v>
       </c>
       <c r="S4">
-        <v>0.1667522917907811</v>
+        <v>0.2119183641165082</v>
       </c>
       <c r="T4">
-        <v>0.1667522917907811</v>
+        <v>0.2119183641165082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.750007333333333</v>
+        <v>4.888145666666667</v>
       </c>
       <c r="H5">
-        <v>14.250022</v>
+        <v>14.664437</v>
       </c>
       <c r="I5">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="J5">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.043994</v>
+        <v>0.04716066666666666</v>
       </c>
       <c r="N5">
-        <v>0.131982</v>
+        <v>0.141482</v>
       </c>
       <c r="O5">
-        <v>0.006846670824338503</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="P5">
-        <v>0.006846670824338504</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="Q5">
-        <v>0.2089718226226667</v>
+        <v>0.2305282084037777</v>
       </c>
       <c r="R5">
-        <v>1.880746403604</v>
+        <v>2.074753875634</v>
       </c>
       <c r="S5">
-        <v>0.005061272566803924</v>
+        <v>0.003925053767325478</v>
       </c>
       <c r="T5">
-        <v>0.005061272566803924</v>
+        <v>0.003925053767325478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.546437</v>
       </c>
       <c r="I6">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="J6">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.750007333333333</v>
+        <v>4.888145666666667</v>
       </c>
       <c r="N6">
-        <v>14.250022</v>
+        <v>14.664437</v>
       </c>
       <c r="O6">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="P6">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="Q6">
-        <v>0.8651932524015555</v>
+        <v>0.8903545512187777</v>
       </c>
       <c r="R6">
-        <v>7.786739271613999</v>
+        <v>8.013190960968998</v>
       </c>
       <c r="S6">
-        <v>0.02095487716193599</v>
+        <v>0.01515948746452575</v>
       </c>
       <c r="T6">
-        <v>0.02095487716193599</v>
+        <v>0.01515948746452575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.546437</v>
       </c>
       <c r="I7">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="J7">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.546437</v>
       </c>
       <c r="O7">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="P7">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="Q7">
         <v>0.03317704388544444</v>
@@ -880,10 +880,10 @@
         <v>0.2985933949689999</v>
       </c>
       <c r="S7">
-        <v>0.0008035440374574027</v>
+        <v>0.0005648839332633811</v>
       </c>
       <c r="T7">
-        <v>0.0008035440374574029</v>
+        <v>0.0005648839332633811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.546437</v>
       </c>
       <c r="I8">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="J8">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.449457666666667</v>
+        <v>2.546261</v>
       </c>
       <c r="N8">
-        <v>4.348373</v>
+        <v>7.638783</v>
       </c>
       <c r="O8">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="P8">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="Q8">
-        <v>0.2640124330001111</v>
+        <v>0.4637904073523333</v>
       </c>
       <c r="R8">
-        <v>2.376111897001</v>
+        <v>4.174113666170999</v>
       </c>
       <c r="S8">
-        <v>0.006394349571479894</v>
+        <v>0.007896657412264269</v>
       </c>
       <c r="T8">
-        <v>0.006394349571479895</v>
+        <v>0.007896657412264269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.546437</v>
       </c>
       <c r="I9">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="J9">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -986,28 +986,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.043994</v>
+        <v>0.04716066666666666</v>
       </c>
       <c r="N9">
-        <v>0.131982</v>
+        <v>0.141482</v>
       </c>
       <c r="O9">
-        <v>0.006846670824338503</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="P9">
-        <v>0.006846670824338504</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="Q9">
-        <v>0.008013316459333333</v>
+        <v>0.008590111070444443</v>
       </c>
       <c r="R9">
-        <v>0.07211984813399999</v>
+        <v>0.077310999634</v>
       </c>
       <c r="S9">
-        <v>0.000194081566862608</v>
+        <v>0.0001462582304016194</v>
       </c>
       <c r="T9">
-        <v>0.000194081566862608</v>
+        <v>0.0001462582304016194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.449457666666667</v>
+        <v>2.546261</v>
       </c>
       <c r="H10">
-        <v>4.348373</v>
+        <v>7.638783</v>
       </c>
       <c r="I10">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="J10">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.750007333333333</v>
+        <v>4.888145666666667</v>
       </c>
       <c r="N10">
-        <v>14.250022</v>
+        <v>14.664437</v>
       </c>
       <c r="O10">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="P10">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="Q10">
-        <v>6.884934546022889</v>
+        <v>12.44649467335233</v>
       </c>
       <c r="R10">
-        <v>61.96441091420599</v>
+        <v>112.018452060171</v>
       </c>
       <c r="S10">
-        <v>0.1667522917907811</v>
+        <v>0.2119183641165082</v>
       </c>
       <c r="T10">
-        <v>0.1667522917907811</v>
+        <v>0.2119183641165082</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.449457666666667</v>
+        <v>2.546261</v>
       </c>
       <c r="H11">
-        <v>4.348373</v>
+        <v>7.638783</v>
       </c>
       <c r="I11">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="J11">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,22 +1116,22 @@
         <v>0.546437</v>
       </c>
       <c r="O11">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="P11">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="Q11">
-        <v>0.2640124330001111</v>
+        <v>0.4637904073523333</v>
       </c>
       <c r="R11">
-        <v>2.376111897001</v>
+        <v>4.174113666170999</v>
       </c>
       <c r="S11">
-        <v>0.006394349571479894</v>
+        <v>0.007896657412264269</v>
       </c>
       <c r="T11">
-        <v>0.006394349571479895</v>
+        <v>0.007896657412264269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.449457666666667</v>
+        <v>2.546261</v>
       </c>
       <c r="H12">
-        <v>4.348373</v>
+        <v>7.638783</v>
       </c>
       <c r="I12">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="J12">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.449457666666667</v>
+        <v>2.546261</v>
       </c>
       <c r="N12">
-        <v>4.348373</v>
+        <v>7.638783</v>
       </c>
       <c r="O12">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="P12">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="Q12">
-        <v>2.100927527458778</v>
+        <v>6.483445080120999</v>
       </c>
       <c r="R12">
-        <v>18.908347747129</v>
+        <v>58.351005721089</v>
       </c>
       <c r="S12">
-        <v>0.05088421360410211</v>
+        <v>0.1103893996885794</v>
       </c>
       <c r="T12">
-        <v>0.05088421360410211</v>
+        <v>0.1103893996885794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.449457666666667</v>
+        <v>2.546261</v>
       </c>
       <c r="H13">
-        <v>4.348373</v>
+        <v>7.638783</v>
       </c>
       <c r="I13">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="J13">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1234,28 +1234,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.043994</v>
+        <v>0.04716066666666666</v>
       </c>
       <c r="N13">
-        <v>0.131982</v>
+        <v>0.141482</v>
       </c>
       <c r="O13">
-        <v>0.006846670824338503</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="P13">
-        <v>0.006846670824338504</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="Q13">
-        <v>0.06376744058733333</v>
+        <v>0.1200833662673333</v>
       </c>
       <c r="R13">
-        <v>0.5739069652859999</v>
+        <v>1.080750296406</v>
       </c>
       <c r="S13">
-        <v>0.001544439789295123</v>
+        <v>0.00204458132227864</v>
       </c>
       <c r="T13">
-        <v>0.001544439789295124</v>
+        <v>0.00204458132227864</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.043994</v>
+        <v>0.04716066666666666</v>
       </c>
       <c r="H14">
-        <v>0.131982</v>
+        <v>0.141482</v>
       </c>
       <c r="I14">
-        <v>0.006846670824338503</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="J14">
-        <v>0.006846670824338504</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.750007333333333</v>
+        <v>4.888145666666667</v>
       </c>
       <c r="N14">
-        <v>14.250022</v>
+        <v>14.664437</v>
       </c>
       <c r="O14">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="P14">
-        <v>0.7392311820822673</v>
+        <v>0.6378299483118257</v>
       </c>
       <c r="Q14">
-        <v>0.2089718226226667</v>
+        <v>0.2305282084037777</v>
       </c>
       <c r="R14">
-        <v>1.880746403604</v>
+        <v>2.074753875634</v>
       </c>
       <c r="S14">
-        <v>0.005061272566803924</v>
+        <v>0.003925053767325478</v>
       </c>
       <c r="T14">
-        <v>0.005061272566803924</v>
+        <v>0.003925053767325478</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.043994</v>
+        <v>0.04716066666666666</v>
       </c>
       <c r="H15">
-        <v>0.131982</v>
+        <v>0.141482</v>
       </c>
       <c r="I15">
-        <v>0.006846670824338503</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="J15">
-        <v>0.006846670824338504</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,22 +1364,22 @@
         <v>0.546437</v>
       </c>
       <c r="O15">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="P15">
-        <v>0.02834685233773589</v>
+        <v>0.02376728704045502</v>
       </c>
       <c r="Q15">
-        <v>0.008013316459333333</v>
+        <v>0.008590111070444443</v>
       </c>
       <c r="R15">
-        <v>0.07211984813399999</v>
+        <v>0.077310999634</v>
       </c>
       <c r="S15">
-        <v>0.000194081566862608</v>
+        <v>0.0001462582304016194</v>
       </c>
       <c r="T15">
-        <v>0.000194081566862608</v>
+        <v>0.0001462582304016194</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.043994</v>
+        <v>0.04716066666666666</v>
       </c>
       <c r="H16">
-        <v>0.131982</v>
+        <v>0.141482</v>
       </c>
       <c r="I16">
-        <v>0.006846670824338503</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="J16">
-        <v>0.006846670824338504</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.449457666666667</v>
+        <v>2.546261</v>
       </c>
       <c r="N16">
-        <v>4.348373</v>
+        <v>7.638783</v>
       </c>
       <c r="O16">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="P16">
-        <v>0.2255752947556583</v>
+        <v>0.3322490025396306</v>
       </c>
       <c r="Q16">
-        <v>0.06376744058733333</v>
+        <v>0.1200833662673333</v>
       </c>
       <c r="R16">
-        <v>0.5739069652859999</v>
+        <v>1.080750296406</v>
       </c>
       <c r="S16">
-        <v>0.001544439789295123</v>
+        <v>0.00204458132227864</v>
       </c>
       <c r="T16">
-        <v>0.001544439789295124</v>
+        <v>0.00204458132227864</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.043994</v>
+        <v>0.04716066666666666</v>
       </c>
       <c r="H17">
-        <v>0.131982</v>
+        <v>0.141482</v>
       </c>
       <c r="I17">
-        <v>0.006846670824338503</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="J17">
-        <v>0.006846670824338504</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1482,28 +1482,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.043994</v>
+        <v>0.04716066666666666</v>
       </c>
       <c r="N17">
-        <v>0.131982</v>
+        <v>0.141482</v>
       </c>
       <c r="O17">
-        <v>0.006846670824338503</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="P17">
-        <v>0.006846670824338504</v>
+        <v>0.006153762108088686</v>
       </c>
       <c r="Q17">
-        <v>0.001935472036</v>
+        <v>0.002224128480444444</v>
       </c>
       <c r="R17">
-        <v>0.017419248324</v>
+        <v>0.020017156324</v>
       </c>
       <c r="S17">
-        <v>4.687690137684808E-05</v>
+        <v>3.786878808294811E-05</v>
       </c>
       <c r="T17">
-        <v>4.687690137684808E-05</v>
+        <v>3.786878808294811E-05</v>
       </c>
     </row>
   </sheetData>
